--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_6_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_6_qoq_forecast_error_table_first_eval.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05261753845416351</v>
+        <v>0.009355319046315843</v>
       </c>
       <c r="C2">
-        <v>1.350476871904311</v>
+        <v>0.8453040705977058</v>
       </c>
       <c r="D2">
-        <v>10.10003955787528</v>
+        <v>3.895540889934523</v>
       </c>
       <c r="E2">
-        <v>3.178055940016677</v>
+        <v>1.973712463844347</v>
       </c>
       <c r="F2">
-        <v>3.209239220060225</v>
+        <v>1.98043797059936</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02310908688600665</v>
+        <v>0.014819735710887</v>
       </c>
       <c r="C3">
-        <v>1.508687381939164</v>
+        <v>0.9348841099345737</v>
       </c>
       <c r="D3">
-        <v>9.675801997808875</v>
+        <v>3.83779492710257</v>
       </c>
       <c r="E3">
-        <v>3.110595119556526</v>
+        <v>1.959029077656217</v>
       </c>
       <c r="F3">
-        <v>3.1420888619256</v>
+        <v>1.965716495099241</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0619550970533476</v>
+        <v>0.02337911836098484</v>
       </c>
       <c r="C4">
-        <v>1.373983353632171</v>
+        <v>0.9155265504695959</v>
       </c>
       <c r="D4">
-        <v>6.861338155303133</v>
+        <v>2.856554757174117</v>
       </c>
       <c r="E4">
-        <v>2.619415613319722</v>
+        <v>1.690134538187454</v>
       </c>
       <c r="F4">
-        <v>2.645820156166766</v>
+        <v>1.695830641336568</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06730251648952341</v>
+        <v>0.02567497148425077</v>
       </c>
       <c r="C5">
-        <v>1.433898174105932</v>
+        <v>0.9155663396149141</v>
       </c>
       <c r="D5">
-        <v>8.49624289535795</v>
+        <v>3.371414575219348</v>
       </c>
       <c r="E5">
-        <v>2.914831538075219</v>
+        <v>1.836141218757247</v>
       </c>
       <c r="F5">
-        <v>2.944891851492343</v>
+        <v>1.842369964730255</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04899455259774384</v>
+        <v>0.03261840467407245</v>
       </c>
       <c r="C6">
-        <v>1.583601773355311</v>
+        <v>0.9918011744559903</v>
       </c>
       <c r="D6">
-        <v>9.97197792596331</v>
+        <v>3.939236338740576</v>
       </c>
       <c r="E6">
-        <v>3.157843872955614</v>
+        <v>1.984750951313685</v>
       </c>
       <c r="F6">
-        <v>3.19159950566434</v>
+        <v>1.991458256332732</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05601300463246239</v>
+        <v>0.03961335383754752</v>
       </c>
       <c r="C7">
-        <v>1.591143510471736</v>
+        <v>1.002642090472125</v>
       </c>
       <c r="D7">
-        <v>8.723097247822707</v>
+        <v>3.553023518865491</v>
       </c>
       <c r="E7">
-        <v>2.953488995717219</v>
+        <v>1.884946555970617</v>
       </c>
       <c r="F7">
-        <v>2.985588162386466</v>
+        <v>1.89120118449088</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01539162827235637</v>
+        <v>0.05663703026291498</v>
       </c>
       <c r="C8">
-        <v>1.578671680484494</v>
+        <v>1.050085343511526</v>
       </c>
       <c r="D8">
-        <v>8.737106999296079</v>
+        <v>3.611378132128495</v>
       </c>
       <c r="E8">
-        <v>2.955859773280201</v>
+        <v>1.900362631743872</v>
       </c>
       <c r="F8">
-        <v>2.989219852495662</v>
+        <v>1.906290383046426</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_6_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_6_qoq_forecast_error_table_first_eval.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.009355319046315843</v>
+        <v>0.05261753845416351</v>
       </c>
       <c r="C2">
-        <v>0.8453040705977058</v>
+        <v>1.350476871904311</v>
       </c>
       <c r="D2">
-        <v>3.895540889934523</v>
+        <v>10.10003955787528</v>
       </c>
       <c r="E2">
-        <v>1.973712463844347</v>
+        <v>3.178055940016677</v>
       </c>
       <c r="F2">
-        <v>1.98043797059936</v>
+        <v>3.209239220060225</v>
       </c>
       <c r="G2">
-        <v>147</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.014819735710887</v>
+        <v>0.02310908688600665</v>
       </c>
       <c r="C3">
-        <v>0.9348841099345737</v>
+        <v>1.508687381939164</v>
       </c>
       <c r="D3">
-        <v>3.83779492710257</v>
+        <v>9.675801997808875</v>
       </c>
       <c r="E3">
-        <v>1.959029077656217</v>
+        <v>3.110595119556526</v>
       </c>
       <c r="F3">
-        <v>1.965716495099241</v>
+        <v>3.1420888619256</v>
       </c>
       <c r="G3">
-        <v>146</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02337911836098484</v>
+        <v>0.0619550970533476</v>
       </c>
       <c r="C4">
-        <v>0.9155265504695959</v>
+        <v>1.373983353632171</v>
       </c>
       <c r="D4">
-        <v>2.856554757174117</v>
+        <v>6.861338155303133</v>
       </c>
       <c r="E4">
-        <v>1.690134538187454</v>
+        <v>2.619415613319722</v>
       </c>
       <c r="F4">
-        <v>1.695830641336568</v>
+        <v>2.645820156166766</v>
       </c>
       <c r="G4">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02567497148425077</v>
+        <v>0.06730251648952341</v>
       </c>
       <c r="C5">
-        <v>0.9155663396149141</v>
+        <v>1.433898174105932</v>
       </c>
       <c r="D5">
-        <v>3.371414575219348</v>
+        <v>8.49624289535795</v>
       </c>
       <c r="E5">
-        <v>1.836141218757247</v>
+        <v>2.914831538075219</v>
       </c>
       <c r="F5">
-        <v>1.842369964730255</v>
+        <v>2.944891851492343</v>
       </c>
       <c r="G5">
-        <v>144</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03261840467407245</v>
+        <v>0.04899455259774384</v>
       </c>
       <c r="C6">
-        <v>0.9918011744559903</v>
+        <v>1.583601773355311</v>
       </c>
       <c r="D6">
-        <v>3.939236338740576</v>
+        <v>9.97197792596331</v>
       </c>
       <c r="E6">
-        <v>1.984750951313685</v>
+        <v>3.157843872955614</v>
       </c>
       <c r="F6">
-        <v>1.991458256332732</v>
+        <v>3.19159950566434</v>
       </c>
       <c r="G6">
-        <v>143</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03961335383754752</v>
+        <v>0.05601300463246239</v>
       </c>
       <c r="C7">
-        <v>1.002642090472125</v>
+        <v>1.591143510471736</v>
       </c>
       <c r="D7">
-        <v>3.553023518865491</v>
+        <v>8.723097247822707</v>
       </c>
       <c r="E7">
-        <v>1.884946555970617</v>
+        <v>2.953488995717219</v>
       </c>
       <c r="F7">
-        <v>1.89120118449088</v>
+        <v>2.985588162386466</v>
       </c>
       <c r="G7">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05663703026291498</v>
+        <v>0.01539162827235637</v>
       </c>
       <c r="C8">
-        <v>1.050085343511526</v>
+        <v>1.578671680484494</v>
       </c>
       <c r="D8">
-        <v>3.611378132128495</v>
+        <v>8.737106999296079</v>
       </c>
       <c r="E8">
-        <v>1.900362631743872</v>
+        <v>2.955859773280201</v>
       </c>
       <c r="F8">
-        <v>1.906290383046426</v>
+        <v>2.989219852495662</v>
       </c>
       <c r="G8">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
